--- a/Support data/Offshore wind.xlsx
+++ b/Support data/Offshore wind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Support data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{452515B6-EA52-4EF3-9562-4B34B00D1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EA181B-4583-4746-AA93-EE966A22531E}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{452515B6-EA52-4EF3-9562-4B34B00D1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB47A69-9AB2-4C3C-958E-0D2BB7B95D37}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="4" activeTab="5" xr2:uid="{84DAE81B-5E2A-4841-B8DD-F2AC7EE61C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="1" activeTab="5" xr2:uid="{84DAE81B-5E2A-4841-B8DD-F2AC7EE61C31}"/>
   </bookViews>
   <sheets>
     <sheet name="_Database levels" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="_References" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'_Technology - Sources'!$A$1:$G$1059</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Commodity!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4838,7 +4839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4876,8 +4877,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -11974,9 +11974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59351A5-90BE-4DB0-876F-414402CEFD9C}">
   <dimension ref="A1:G1071"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C650" sqref="C650"/>
+    <sheetView zoomScale="97" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37419,6 +37419,7 @@
       <c r="F1071" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1059" xr:uid="{B59351A5-90BE-4DB0-876F-414402CEFD9C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37429,7 +37430,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37558,7 +37559,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37776,8 +37777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD44137B-885C-493B-A830-0D1C3B3D3991}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38109,7 +38110,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38669,64 +38670,34 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D31" s="23"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D34" s="23"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="23"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G27" xr:uid="{CF714429-353E-4071-AE36-83A3774B3E41}"/>

--- a/Support data/Offshore wind.xlsx
+++ b/Support data/Offshore wind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Support data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{452515B6-EA52-4EF3-9562-4B34B00D1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB47A69-9AB2-4C3C-958E-0D2BB7B95D37}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{452515B6-EA52-4EF3-9562-4B34B00D1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F006F687-7CD7-4C53-9699-EB56B437B5EB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="1" activeTab="5" xr2:uid="{84DAE81B-5E2A-4841-B8DD-F2AC7EE61C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="5" xr2:uid="{84DAE81B-5E2A-4841-B8DD-F2AC7EE61C31}"/>
   </bookViews>
   <sheets>
     <sheet name="_Database levels" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="1565">
   <si>
     <t>Scenario</t>
   </si>
@@ -4767,6 +4767,9 @@
   </si>
   <si>
     <t>Use of a parent sector "Manufacture of electrical machinery and apparatus n.e.c. (31)" of region "EU27+UK"</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -5218,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5965D949-E255-4DFF-8B9B-61373D2891CE}">
   <dimension ref="A1:F1106"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A167" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7491,6 +7494,9 @@
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>1564</v>
+      </c>
       <c r="E212" t="s">
         <v>635</v>
       </c>
@@ -38110,7 +38116,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38380,7 +38386,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>173</v>
+        <v>1564</v>
       </c>
       <c r="E13" s="14">
         <v>8.8935E-2</v>
@@ -38441,7 +38447,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>173</v>
+        <v>1564</v>
       </c>
       <c r="E16" s="19">
         <v>0.71559690636414064</v>
@@ -38619,7 +38625,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>173</v>
+        <v>1564</v>
       </c>
       <c r="E25" s="21">
         <v>0.71559690636414064</v>
